--- a/data/georgia_census/qvemo-qartli/rustavi/education_graduates.xlsx
+++ b/data/georgia_census/qvemo-qartli/rustavi/education_graduates.xlsx
@@ -1832,13 +1832,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3462F2C-41A4-43D7-8EA7-4CAF670743C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13056F21-E5B8-44BF-ABDC-0F0B6FDF46CB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF58CD46-1346-424E-B8C7-EDF1552BBE11}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C181D8-3A00-4D21-A67F-066F52CAEC63}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A47746-A01B-4844-B6F1-4139708B4057}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EFC6B5-B192-419F-89E2-6D412F585DC0}"/>
 </file>